--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2113.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2113.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.825107407215529</v>
+        <v>1.785703420639038</v>
       </c>
       <c r="B1">
-        <v>2.054032134256806</v>
+        <v>4.090403079986572</v>
       </c>
       <c r="C1">
-        <v>1.691810192268443</v>
+        <v>2.074463844299316</v>
       </c>
       <c r="D1">
-        <v>1.729205593593342</v>
+        <v>1.603772878646851</v>
       </c>
       <c r="E1">
-        <v>1.970917009372525</v>
+        <v>1.450293779373169</v>
       </c>
     </row>
   </sheetData>
